--- a/GameData/Excel/monster_type.xlsx
+++ b/GameData/Excel/monster_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10863F0A-BD7B-47B5-9783-7077C0735A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE3C2F5-AEE2-4953-B322-7F31828B11BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="7716" windowWidth="34560" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="7740" yWindow="7710" windowWidth="34560" windowHeight="18795" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="actor_rsc" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -176,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>#memo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,6 +234,14 @@
   </si>
   <si>
     <t>enum:effect_tag</t>
+  </si>
+  <si>
+    <t>shaman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tanker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -397,9 +394,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -437,7 +434,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -543,7 +540,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -685,7 +682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -693,23 +690,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.19921875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="3"/>
+    <col min="7" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -729,7 +726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -747,7 +744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -765,7 +762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -783,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -801,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -818,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -835,7 +832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -852,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -867,6 +864,214 @@
       </c>
       <c r="F9" s="3">
         <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
